--- a/Experiments/Activation/33MeVTa_25Apr/Unfold/ETA/STAYSL_PNNL/ETA_88_BeamCalcs.xlsx
+++ b/Experiments/Activation/33MeVTa_25Apr/Unfold/ETA/STAYSL_PNNL/ETA_88_BeamCalcs.xlsx
@@ -20,16 +20,11 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>Meulders</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -297,6 +292,39 @@
   </si>
   <si>
     <t>Simulated Solid Angle</t>
+  </si>
+  <si>
+    <t>With Pt Src @ Tgt</t>
+  </si>
+  <si>
+    <t>With Surf Src @ End of Beam Pipe</t>
+  </si>
+  <si>
+    <t>Tally 1</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Tally 4</t>
+  </si>
+  <si>
+    <t>Tally 2</t>
+  </si>
+  <si>
+    <t>Tally 11</t>
+  </si>
+  <si>
+    <t>Tally 1+11</t>
+  </si>
+  <si>
+    <t>Tally 12</t>
+  </si>
+  <si>
+    <t>Tally 2+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -663,7 +691,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -722,6 +750,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -862,11 +893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="491034008"/>
-        <c:axId val="491034400"/>
+        <c:axId val="168418800"/>
+        <c:axId val="169228664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="491034008"/>
+        <c:axId val="168418800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,12 +907,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491034400"/>
+        <c:crossAx val="169228664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491034400"/>
+        <c:axId val="169228664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,13 +922,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491034008"/>
+        <c:crossAx val="168418800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2082,11 +2114,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="491035968"/>
-        <c:axId val="491036360"/>
+        <c:axId val="237870768"/>
+        <c:axId val="237871160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="491035968"/>
+        <c:axId val="237870768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,12 +2128,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491036360"/>
+        <c:crossAx val="237871160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491036360"/>
+        <c:axId val="237871160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,7 +2144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491035968"/>
+        <c:crossAx val="237870768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2820,11 +2852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="491039888"/>
-        <c:axId val="491040280"/>
+        <c:axId val="237872728"/>
+        <c:axId val="237873120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="491039888"/>
+        <c:axId val="237872728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,12 +2866,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491040280"/>
+        <c:crossAx val="237873120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491040280"/>
+        <c:axId val="237873120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,7 +2882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491039888"/>
+        <c:crossAx val="237872728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3168,11 +3200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="491038320"/>
-        <c:axId val="491037928"/>
+        <c:axId val="240918984"/>
+        <c:axId val="240919376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="491038320"/>
+        <c:axId val="240918984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3182,12 +3214,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491037928"/>
+        <c:crossAx val="240919376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491037928"/>
+        <c:axId val="240919376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,7 +3230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491038320"/>
+        <c:crossAx val="240918984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3671,10 +3703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3682,8 +3714,8 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4105,7 +4137,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="24">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>50</v>
@@ -4175,7 +4207,7 @@
       </c>
       <c r="B17" s="14">
         <f>2*PI()*(1-B16/(SQRT(B16^2+B14^2)))</f>
-        <v>3.9146186186604085E-5</v>
+        <v>1.5658035482234744E-4</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>56</v>
@@ -4207,7 +4239,7 @@
       </c>
       <c r="B18" s="14">
         <f>B17*C9</f>
-        <v>8797968.7227012273</v>
+        <v>35190888.270691544</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>53</v>
@@ -4235,7 +4267,7 @@
       </c>
       <c r="B19" s="14">
         <f>C5*B18</f>
-        <v>619007483391.81299</v>
+        <v>2475960516949.3154</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>51</v>
@@ -4293,6 +4325,11 @@
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="41"/>
+      <c r="E21" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="K21" s="5"/>
@@ -4328,6 +4365,15 @@
       <c r="C22" s="29" t="s">
         <v>73</v>
       </c>
+      <c r="E22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>73</v>
+      </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="K22" s="5"/>
@@ -4364,6 +4410,16 @@
       <c r="C23" s="31" t="s">
         <v>56</v>
       </c>
+      <c r="E23" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="14">
+        <f>(1-COS(RADIANS(F22)))/2*4*PI()</f>
+        <v>1.5696862211619296E-4</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="K23" s="5"/>
@@ -4398,6 +4454,16 @@
         <v>5373558034.1668377</v>
       </c>
       <c r="C24" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="33">
+        <f>(1-COS(RADIANS(F22)))/2*4*PI()*C9</f>
+        <v>35278149.989905193</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>60</v>
       </c>
       <c r="H24" s="23"/>
@@ -4452,6 +4518,21 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="K26" s="5"/>
@@ -4478,6 +4559,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="4">
+        <v>0.49161500000000002</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6.3718599999999998E-4</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3.56437E-2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.50838499999999998</v>
+      </c>
+      <c r="G27" s="4">
+        <f>C27+F27</f>
+        <v>1</v>
+      </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -4490,6 +4591,26 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="4">
+        <v>1.16993E-3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.51933E-6</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3.34592E-5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>7.2451499999999997E-3</v>
+      </c>
+      <c r="G28" s="4">
+        <f>C28+F28</f>
+        <v>8.4150800000000001E-3</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -4514,6 +4635,30 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="4">
+        <f>C28/C27</f>
+        <v>2.3797687214588653E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" ref="D29:G29" si="2">D28/D27</f>
+        <v>2.3844371973018867E-3</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="2"/>
+        <v>9.3871287212045882E-4</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4251305605004082E-2</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="2"/>
+        <v>8.4150800000000001E-3</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -4537,11 +4682,141 @@
         <v>111.4</v>
       </c>
     </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G30" s="4">
+        <f>B24*G29</f>
+        <v>45218920.742156669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="4">
+        <v>0.48474800000000001</v>
+      </c>
+      <c r="D32" s="4">
+        <v>6.2865700000000002E-4</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4.4767800000000003E-2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.51707800000000004</v>
+      </c>
+      <c r="G32" s="4">
+        <f>C32+F32</f>
+        <v>1.0018260000000001</v>
+      </c>
+      <c r="H32" s="4">
+        <f>D32+E32</f>
+        <v>4.5396457000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="4">
+        <v>1.1739400000000001E-3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.5245E-6</v>
+      </c>
+      <c r="E33" s="4">
+        <v>6.2759899999999995E-4</v>
+      </c>
+      <c r="F33" s="4">
+        <v>7.2523600000000002E-3</v>
+      </c>
+      <c r="G33" s="4">
+        <f>C33+F33</f>
+        <v>8.4263000000000012E-3</v>
+      </c>
+      <c r="H33" s="4">
+        <f>D33+E33</f>
+        <v>6.2912349999999994E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="4">
+        <f>C33/C32</f>
+        <v>2.4217531583420665E-3</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" ref="D34" si="3">D33/D32</f>
+        <v>2.425010776941957E-3</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" ref="E34" si="4">E33/E32</f>
+        <v>1.4018982393595395E-2</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" ref="F34:H34" si="5">F33/F32</f>
+        <v>1.4025659571670037E-2</v>
+      </c>
+      <c r="G34" s="4">
+        <f>G33/G32</f>
+        <v>8.4109416206007825E-3</v>
+      </c>
+      <c r="H34" s="4">
+        <f>H33/H32</f>
+        <v>1.3858427321762136E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G35" s="4">
+        <f>B24*G34</f>
+        <v>45196682.920287579</v>
+      </c>
+      <c r="H35" s="4">
+        <f>B24*H34</f>
+        <v>74469063.475772128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A9:D17">
     <sortCondition ref="C9:C16"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A21:C21"/>
   </mergeCells>

--- a/Experiments/Activation/33MeVTa_25Apr/Unfold/ETA/STAYSL_PNNL/ETA_88_BeamCalcs.xlsx
+++ b/Experiments/Activation/33MeVTa_25Apr/Unfold/ETA/STAYSL_PNNL/ETA_88_BeamCalcs.xlsx
@@ -734,13 +734,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,7 +746,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -893,11 +893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168418800"/>
-        <c:axId val="169228664"/>
+        <c:axId val="241020344"/>
+        <c:axId val="241020736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168418800"/>
+        <c:axId val="241020344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,12 +907,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169228664"/>
+        <c:crossAx val="241020736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169228664"/>
+        <c:axId val="241020736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,14 +922,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168418800"/>
+        <c:crossAx val="241020344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2114,11 +2113,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237870768"/>
-        <c:axId val="237871160"/>
+        <c:axId val="241022304"/>
+        <c:axId val="241022696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237870768"/>
+        <c:axId val="241022304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,12 +2127,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237871160"/>
+        <c:crossAx val="241022696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237871160"/>
+        <c:axId val="241022696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +2143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237870768"/>
+        <c:crossAx val="241022304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2852,11 +2851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237872728"/>
-        <c:axId val="237873120"/>
+        <c:axId val="241024264"/>
+        <c:axId val="241024656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237872728"/>
+        <c:axId val="241024264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,12 +2865,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237873120"/>
+        <c:crossAx val="241024656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237873120"/>
+        <c:axId val="241024656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +2881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237872728"/>
+        <c:crossAx val="241024264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3200,11 +3199,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240918984"/>
-        <c:axId val="240919376"/>
+        <c:axId val="241025440"/>
+        <c:axId val="241025832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240918984"/>
+        <c:axId val="241025440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,12 +3213,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240919376"/>
+        <c:crossAx val="241025832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240919376"/>
+        <c:axId val="241025832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3230,7 +3229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240918984"/>
+        <c:crossAx val="241025440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3703,10 +3702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E38" sqref="E38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4071,11 +4070,11 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="K12" s="5" t="s">
@@ -4320,16 +4319,16 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="E21" s="39" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="E21" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="K21" s="5"/>
@@ -4559,10 +4558,10 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="4">
         <v>0.49161500000000002</v>
       </c>
@@ -4591,10 +4590,10 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="4">
         <v>1.16993E-3</v>
       </c>
@@ -4635,10 +4634,10 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="4">
         <f>C28/C27</f>
         <v>2.3797687214588653E-3</v>
@@ -4709,10 +4708,10 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="42"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="4">
         <v>0.48474800000000001</v>
       </c>
@@ -4735,10 +4734,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="42"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="4">
         <v>1.1739400000000001E-3</v>
       </c>
@@ -4761,10 +4760,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="42"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="4">
         <f>C33/C32</f>
         <v>2.4217531583420665E-3</v>
@@ -4778,7 +4777,7 @@
         <v>1.4018982393595395E-2</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" ref="F34:H34" si="5">F33/F32</f>
+        <f t="shared" ref="F34" si="5">F33/F32</f>
         <v>1.4025659571670037E-2</v>
       </c>
       <c r="G34" s="4">
@@ -4804,12 +4803,18 @@
       <c r="D37" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A9:D17">
     <sortCondition ref="C9:C16"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="A27:B27"/>
@@ -4817,8 +4822,6 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Experiments/Activation/33MeVTa_25Apr/Unfold/ETA/STAYSL_PNNL/ETA_88_BeamCalcs.xlsx
+++ b/Experiments/Activation/33MeVTa_25Apr/Unfold/ETA/STAYSL_PNNL/ETA_88_BeamCalcs.xlsx
@@ -734,7 +734,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,13 +752,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -893,11 +893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241020344"/>
-        <c:axId val="241020736"/>
+        <c:axId val="459561200"/>
+        <c:axId val="459562376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241020344"/>
+        <c:axId val="459561200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,12 +907,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241020736"/>
+        <c:crossAx val="459562376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241020736"/>
+        <c:axId val="459562376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,13 +922,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241020344"/>
+        <c:crossAx val="459561200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2113,11 +2114,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241022304"/>
-        <c:axId val="241022696"/>
+        <c:axId val="459563944"/>
+        <c:axId val="459564336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241022304"/>
+        <c:axId val="459563944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,12 +2128,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241022696"/>
+        <c:crossAx val="459564336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241022696"/>
+        <c:axId val="459564336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,7 +2144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241022304"/>
+        <c:crossAx val="459563944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2851,11 +2852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241024264"/>
-        <c:axId val="241024656"/>
+        <c:axId val="459565904"/>
+        <c:axId val="459566296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241024264"/>
+        <c:axId val="459565904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2865,12 +2866,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241024656"/>
+        <c:crossAx val="459566296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241024656"/>
+        <c:axId val="459566296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,7 +2882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241024264"/>
+        <c:crossAx val="459565904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3199,11 +3200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241025440"/>
-        <c:axId val="241025832"/>
+        <c:axId val="459568648"/>
+        <c:axId val="459569040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241025440"/>
+        <c:axId val="459568648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,12 +3214,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241025832"/>
+        <c:crossAx val="459569040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241025832"/>
+        <c:axId val="459569040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3229,7 +3230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241025440"/>
+        <c:crossAx val="459568648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3705,7 +3706,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:F38"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3825,8 +3826,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="7">
-        <f>70418-60</f>
-        <v>70358</v>
+        <v>70418</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C6" s="26">
         <f>C3*C4*1000000/C5</f>
-        <v>10.806731288552831</v>
+        <v>10.797523360504416</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>3</v>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="C7">
         <f>C2*C6/1000</f>
-        <v>0.3566221325222434</v>
+        <v>0.35631827089664575</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C9" s="9">
         <f>C6*C8</f>
-        <v>224746509934.90427</v>
+        <v>224555013576.07419</v>
       </c>
       <c r="D9" s="6"/>
       <c r="J9" s="5" t="s">
@@ -4004,7 +4004,7 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="11">
         <f>C9*C5*4*PI()</f>
-        <v>1.9870843643065242E+17</v>
+        <v>1.9870843643065238E+17</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>65</v>
@@ -4070,11 +4070,11 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="K12" s="5" t="s">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B18" s="14">
         <f>B17*C9</f>
-        <v>35190888.270691544</v>
+        <v>35160903.702878743</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>53</v>
@@ -4319,16 +4319,16 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="E21" s="37" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="E21" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="K21" s="5"/>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="B24" s="33">
         <f>(1-COS(RADIANS(B22)))/2*4*PI()*C9</f>
-        <v>5373558034.1668377</v>
+        <v>5368979467.8620567</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>60</v>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="F24" s="33">
         <f>(1-COS(RADIANS(F22)))/2*4*PI()*C9</f>
-        <v>35278149.989905193</v>
+        <v>35248091.070319369</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>60</v>
@@ -4558,10 +4558,10 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="4">
         <v>0.49161500000000002</v>
       </c>
@@ -4590,10 +4590,10 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="4">
         <v>1.16993E-3</v>
       </c>
@@ -4634,10 +4634,10 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="4">
         <f>C28/C27</f>
         <v>2.3797687214588653E-3</v>
@@ -4684,7 +4684,7 @@
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G30" s="4">
         <f>B24*G29</f>
-        <v>45218920.742156669</v>
+        <v>45180391.740416639</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -4708,10 +4708,10 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="4">
         <v>0.48474800000000001</v>
       </c>
@@ -4734,10 +4734,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="36"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="4">
         <v>1.1739400000000001E-3</v>
       </c>
@@ -4760,10 +4760,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="36"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="4">
         <f>C33/C32</f>
         <v>2.4217531583420665E-3</v>
@@ -4792,11 +4792,11 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G35" s="4">
         <f>B24*G34</f>
-        <v>45196682.920287579</v>
+        <v>45158172.866392016</v>
       </c>
       <c r="H35" s="4">
         <f>B24*H34</f>
-        <v>74469063.475772128</v>
+        <v>74405611.747399464</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
